--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.480023</v>
+        <v>11.071066</v>
       </c>
       <c r="H2">
-        <v>49.44006900000001</v>
+        <v>33.213198</v>
       </c>
       <c r="I2">
-        <v>0.09611448044481745</v>
+        <v>0.07439893415073216</v>
       </c>
       <c r="J2">
-        <v>0.1006165103220765</v>
+        <v>0.07645010820826473</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.654529</v>
+        <v>2.266198333333334</v>
       </c>
       <c r="N2">
-        <v>1.963587</v>
+        <v>6.798595000000001</v>
       </c>
       <c r="O2">
-        <v>0.001636504842097015</v>
+        <v>0.004051889747168086</v>
       </c>
       <c r="P2">
-        <v>0.001641975240588762</v>
+        <v>0.004065587792570741</v>
       </c>
       <c r="Q2">
-        <v>10.786652974167</v>
+        <v>25.08923131742334</v>
       </c>
       <c r="R2">
-        <v>97.07987676750301</v>
+        <v>225.80308185681</v>
       </c>
       <c r="S2">
-        <v>0.0001572918126435826</v>
+        <v>0.0003014562784855853</v>
       </c>
       <c r="T2">
-        <v>0.0001652098187432932</v>
+        <v>0.0003108146266722333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.480023</v>
+        <v>11.071066</v>
       </c>
       <c r="H3">
-        <v>49.44006900000001</v>
+        <v>33.213198</v>
       </c>
       <c r="I3">
-        <v>0.09611448044481745</v>
+        <v>0.07439893415073216</v>
       </c>
       <c r="J3">
-        <v>0.1006165103220765</v>
+        <v>0.07645010820826473</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.877636000000001</v>
       </c>
       <c r="O3">
-        <v>0.006565428197618827</v>
+        <v>0.00469498661713519</v>
       </c>
       <c r="P3">
-        <v>0.006587374670116828</v>
+        <v>0.004710858751832666</v>
       </c>
       <c r="Q3">
-        <v>43.27454082187601</v>
+        <v>29.07127602665867</v>
       </c>
       <c r="R3">
-        <v>389.4708673968841</v>
+        <v>261.641484239928</v>
       </c>
       <c r="S3">
-        <v>0.0006310327201118878</v>
+        <v>0.0003493020001668098</v>
       </c>
       <c r="T3">
-        <v>0.0006627986514911951</v>
+        <v>0.0003601456613314582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.480023</v>
+        <v>11.071066</v>
       </c>
       <c r="H4">
-        <v>49.44006900000001</v>
+        <v>33.213198</v>
       </c>
       <c r="I4">
-        <v>0.09611448044481745</v>
+        <v>0.07439893415073216</v>
       </c>
       <c r="J4">
-        <v>0.1006165103220765</v>
+        <v>0.07645010820826473</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>196.492958</v>
+        <v>258.491684</v>
       </c>
       <c r="N4">
-        <v>589.4788739999999</v>
+        <v>775.475052</v>
       </c>
       <c r="O4">
-        <v>0.491287135031397</v>
+        <v>0.462174818824101</v>
       </c>
       <c r="P4">
-        <v>0.4929293766755139</v>
+        <v>0.4637372729004096</v>
       </c>
       <c r="Q4">
-        <v>3238.208467178034</v>
+        <v>2861.778494015144</v>
       </c>
       <c r="R4">
-        <v>29143.87620460231</v>
+        <v>25756.0064461363</v>
       </c>
       <c r="S4">
-        <v>0.0472198077327656</v>
+        <v>0.03438531391182086</v>
       </c>
       <c r="T4">
-        <v>0.04959683371632657</v>
+        <v>0.0354527646934419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.480023</v>
+        <v>11.071066</v>
       </c>
       <c r="H5">
-        <v>49.44006900000001</v>
+        <v>33.213198</v>
       </c>
       <c r="I5">
-        <v>0.09611448044481745</v>
+        <v>0.07439893415073216</v>
       </c>
       <c r="J5">
-        <v>0.1006165103220765</v>
+        <v>0.07645010820826473</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.99747</v>
+        <v>5.653232</v>
       </c>
       <c r="N5">
-        <v>7.99494</v>
+        <v>11.306464</v>
       </c>
       <c r="O5">
-        <v>0.009994788636007805</v>
+        <v>0.01010779702828123</v>
       </c>
       <c r="P5">
-        <v>0.006685465696194116</v>
+        <v>0.006761312008663634</v>
       </c>
       <c r="Q5">
-        <v>65.87839754181</v>
+        <v>62.587304585312</v>
       </c>
       <c r="R5">
-        <v>395.27038525086</v>
+        <v>375.523827511872</v>
       </c>
       <c r="S5">
-        <v>0.0009606439169056559</v>
+        <v>0.0007520093255160611</v>
       </c>
       <c r="T5">
-        <v>0.0006726682282290036</v>
+        <v>0.0005169030346921746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.480023</v>
+        <v>11.071066</v>
       </c>
       <c r="H6">
-        <v>49.44006900000001</v>
+        <v>33.213198</v>
       </c>
       <c r="I6">
-        <v>0.09611448044481745</v>
+        <v>0.07439893415073216</v>
       </c>
       <c r="J6">
-        <v>0.1006165103220765</v>
+        <v>0.07645010820826473</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>196.1845956666667</v>
+        <v>290.257182</v>
       </c>
       <c r="N6">
-        <v>588.5537870000001</v>
+        <v>870.7715460000001</v>
       </c>
       <c r="O6">
-        <v>0.4905161432928793</v>
+        <v>0.5189705077833145</v>
       </c>
       <c r="P6">
-        <v>0.4921558077175863</v>
+        <v>0.5207249685465234</v>
       </c>
       <c r="Q6">
-        <v>3233.126648832368</v>
+        <v>3213.456418896012</v>
       </c>
       <c r="R6">
-        <v>29098.13983949131</v>
+        <v>28921.10777006411</v>
       </c>
       <c r="S6">
-        <v>0.04714570426239072</v>
+        <v>0.03861085263474285</v>
       </c>
       <c r="T6">
-        <v>0.04951899990728641</v>
+        <v>0.03980948019212696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>353.854557</v>
       </c>
       <c r="I7">
-        <v>0.6879146325440209</v>
+        <v>0.7926488104270929</v>
       </c>
       <c r="J7">
-        <v>0.7201367515669184</v>
+        <v>0.8145020895800995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.654529</v>
+        <v>2.266198333333334</v>
       </c>
       <c r="N7">
-        <v>1.963587</v>
+        <v>6.798595000000001</v>
       </c>
       <c r="O7">
-        <v>0.001636504842097015</v>
+        <v>0.004051889747168086</v>
       </c>
       <c r="P7">
-        <v>0.001641975240588762</v>
+        <v>0.004065587792570741</v>
       </c>
       <c r="Q7">
-        <v>77.20268977955101</v>
+        <v>267.3015357719351</v>
       </c>
       <c r="R7">
-        <v>694.824208015959</v>
+        <v>2405.713821947415</v>
       </c>
       <c r="S7">
-        <v>0.001125775627107679</v>
+        <v>0.003211725588074518</v>
       </c>
       <c r="T7">
-        <v>0.0011824467159109</v>
+        <v>0.003311429752420212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>353.854557</v>
       </c>
       <c r="I8">
-        <v>0.6879146325440209</v>
+        <v>0.7926488104270929</v>
       </c>
       <c r="J8">
-        <v>0.7201367515669184</v>
+        <v>0.8145020895800995</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.877636000000001</v>
       </c>
       <c r="O8">
-        <v>0.006565428197618827</v>
+        <v>0.00469498661713519</v>
       </c>
       <c r="P8">
-        <v>0.006587374670116828</v>
+        <v>0.004710858751832666</v>
       </c>
       <c r="Q8">
         <v>309.726377443028</v>
@@ -948,10 +948,10 @@
         <v>2787.537396987252</v>
       </c>
       <c r="S8">
-        <v>0.004516454126059108</v>
+        <v>0.00372147555704333</v>
       </c>
       <c r="T8">
-        <v>0.004743810596292133</v>
+        <v>0.003837004297084405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>353.854557</v>
       </c>
       <c r="I9">
-        <v>0.6879146325440209</v>
+        <v>0.7926488104270929</v>
       </c>
       <c r="J9">
-        <v>0.7201367515669184</v>
+        <v>0.8145020895800995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>196.492958</v>
+        <v>258.491684</v>
       </c>
       <c r="N9">
-        <v>589.4788739999999</v>
+        <v>775.475052</v>
       </c>
       <c r="O9">
-        <v>0.491287135031397</v>
+        <v>0.462174818824101</v>
       </c>
       <c r="P9">
-        <v>0.4929293766755139</v>
+        <v>0.4637372729004096</v>
       </c>
       <c r="Q9">
-        <v>23176.6428689032</v>
+        <v>30489.486776668</v>
       </c>
       <c r="R9">
-        <v>208589.7858201288</v>
+        <v>274405.380990012</v>
       </c>
       <c r="S9">
-        <v>0.3379636089687282</v>
+        <v>0.3663423203502809</v>
       </c>
       <c r="T9">
-        <v>0.3549765600710105</v>
+        <v>0.3777149777935604</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>353.854557</v>
       </c>
       <c r="I10">
-        <v>0.6879146325440209</v>
+        <v>0.7926488104270929</v>
       </c>
       <c r="J10">
-        <v>0.7201367515669184</v>
+        <v>0.8145020895800995</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.99747</v>
+        <v>5.653232</v>
       </c>
       <c r="N10">
-        <v>7.99494</v>
+        <v>11.306464</v>
       </c>
       <c r="O10">
-        <v>0.009994788636007805</v>
+        <v>0.01010779702828123</v>
       </c>
       <c r="P10">
-        <v>0.006685465696194116</v>
+        <v>0.006761312008663634</v>
       </c>
       <c r="Q10">
-        <v>471.50765865693</v>
+        <v>666.807301659408</v>
       </c>
       <c r="R10">
-        <v>2829.04595194158</v>
+        <v>4000.843809956448</v>
       </c>
       <c r="S10">
-        <v>0.006875561351894465</v>
+        <v>0.008011933290505618</v>
       </c>
       <c r="T10">
-        <v>0.004814449549169297</v>
+        <v>0.00550710275935955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>353.854557</v>
       </c>
       <c r="I11">
-        <v>0.6879146325440209</v>
+        <v>0.7926488104270929</v>
       </c>
       <c r="J11">
-        <v>0.7201367515669184</v>
+        <v>0.8145020895800995</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>196.1845956666667</v>
+        <v>290.257182</v>
       </c>
       <c r="N11">
-        <v>588.5537870000001</v>
+        <v>870.7715460000001</v>
       </c>
       <c r="O11">
-        <v>0.4905161432928793</v>
+        <v>0.5189705077833145</v>
       </c>
       <c r="P11">
-        <v>0.4921558077175863</v>
+        <v>0.5207249685465234</v>
       </c>
       <c r="Q11">
-        <v>23140.27106328416</v>
+        <v>34236.27551755946</v>
       </c>
       <c r="R11">
-        <v>208262.4395695574</v>
+        <v>308126.4796580352</v>
       </c>
       <c r="S11">
-        <v>0.3374332324702314</v>
+        <v>0.4113613556411886</v>
       </c>
       <c r="T11">
-        <v>0.3544194846345355</v>
+        <v>0.4241315749776749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.592017333333333</v>
+        <v>5.650614</v>
       </c>
       <c r="H12">
-        <v>10.776052</v>
+        <v>16.951842</v>
       </c>
       <c r="I12">
-        <v>0.02094929598958156</v>
+        <v>0.03797282564273442</v>
       </c>
       <c r="J12">
-        <v>0.02193056703236464</v>
+        <v>0.03901973411983414</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.654529</v>
+        <v>2.266198333333334</v>
       </c>
       <c r="N12">
-        <v>1.963587</v>
+        <v>6.798595000000001</v>
       </c>
       <c r="O12">
-        <v>0.001636504842097015</v>
+        <v>0.004051889747168086</v>
       </c>
       <c r="P12">
-        <v>0.001641975240588762</v>
+        <v>0.004065587792570741</v>
       </c>
       <c r="Q12">
-        <v>2.351079513169333</v>
+        <v>12.80541202911</v>
       </c>
       <c r="R12">
-        <v>21.159715618524</v>
+        <v>115.24870826199</v>
       </c>
       <c r="S12">
-        <v>3.42836243254738E-05</v>
+        <v>0.000153861702892797</v>
       </c>
       <c r="T12">
-        <v>3.600944807921489E-05</v>
+        <v>0.0001586381547069537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.592017333333333</v>
+        <v>5.650614</v>
       </c>
       <c r="H13">
-        <v>10.776052</v>
+        <v>16.951842</v>
       </c>
       <c r="I13">
-        <v>0.02094929598958156</v>
+        <v>0.03797282564273442</v>
       </c>
       <c r="J13">
-        <v>0.02193056703236464</v>
+        <v>0.03901973411983414</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.877636000000001</v>
       </c>
       <c r="O13">
-        <v>0.006565428197618827</v>
+        <v>0.00469498661713519</v>
       </c>
       <c r="P13">
-        <v>0.006587374670116828</v>
+        <v>0.004710858751832666</v>
       </c>
       <c r="Q13">
-        <v>9.432201685896889</v>
+        <v>14.837826756168</v>
       </c>
       <c r="R13">
-        <v>84.88981517307201</v>
+        <v>133.540440805512</v>
       </c>
       <c r="S13">
-        <v>0.0001375410986102618</v>
+        <v>0.0001782819082074461</v>
       </c>
       <c r="T13">
-        <v>0.000144464861770298</v>
+        <v>0.0001838164559726043</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.592017333333333</v>
+        <v>5.650614</v>
       </c>
       <c r="H14">
-        <v>10.776052</v>
+        <v>16.951842</v>
       </c>
       <c r="I14">
-        <v>0.02094929598958156</v>
+        <v>0.03797282564273442</v>
       </c>
       <c r="J14">
-        <v>0.02193056703236464</v>
+        <v>0.03901973411983414</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>196.492958</v>
+        <v>258.491684</v>
       </c>
       <c r="N14">
-        <v>589.4788739999999</v>
+        <v>775.475052</v>
       </c>
       <c r="O14">
-        <v>0.491287135031397</v>
+        <v>0.462174818824101</v>
       </c>
       <c r="P14">
-        <v>0.4929293766755139</v>
+        <v>0.4637372729004096</v>
       </c>
       <c r="Q14">
-        <v>705.8061110139384</v>
+        <v>1460.636728493976</v>
       </c>
       <c r="R14">
-        <v>6352.254999125447</v>
+        <v>13145.73055644578</v>
       </c>
       <c r="S14">
-        <v>0.01029211960764626</v>
+        <v>0.01755008381166996</v>
       </c>
       <c r="T14">
-        <v>0.01081022073740407</v>
+        <v>0.01809490509003095</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.592017333333333</v>
+        <v>5.650614</v>
       </c>
       <c r="H15">
-        <v>10.776052</v>
+        <v>16.951842</v>
       </c>
       <c r="I15">
-        <v>0.02094929598958156</v>
+        <v>0.03797282564273442</v>
       </c>
       <c r="J15">
-        <v>0.02193056703236464</v>
+        <v>0.03901973411983414</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.99747</v>
+        <v>5.653232</v>
       </c>
       <c r="N15">
-        <v>7.99494</v>
+        <v>11.306464</v>
       </c>
       <c r="O15">
-        <v>0.009994788636007805</v>
+        <v>0.01010779702828123</v>
       </c>
       <c r="P15">
-        <v>0.006685465696194116</v>
+        <v>0.006761312008663634</v>
       </c>
       <c r="Q15">
-        <v>14.35898152948</v>
+        <v>31.944231884448</v>
       </c>
       <c r="R15">
-        <v>86.15388917688</v>
+        <v>191.665391306688</v>
       </c>
       <c r="S15">
-        <v>0.0002093837854890337</v>
+        <v>0.0003838216141870721</v>
       </c>
       <c r="T15">
-        <v>0.0001466160535929594</v>
+        <v>0.0002638245968792967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.592017333333333</v>
+        <v>5.650614</v>
       </c>
       <c r="H16">
-        <v>10.776052</v>
+        <v>16.951842</v>
       </c>
       <c r="I16">
-        <v>0.02094929598958156</v>
+        <v>0.03797282564273442</v>
       </c>
       <c r="J16">
-        <v>0.02193056703236464</v>
+        <v>0.03901973411983414</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>196.1845956666667</v>
+        <v>290.257182</v>
       </c>
       <c r="N16">
-        <v>588.5537870000001</v>
+        <v>870.7715460000001</v>
       </c>
       <c r="O16">
-        <v>0.4905161432928793</v>
+        <v>0.5189705077833145</v>
       </c>
       <c r="P16">
-        <v>0.4921558077175863</v>
+        <v>0.5207249685465234</v>
       </c>
       <c r="Q16">
-        <v>704.6984681676583</v>
+        <v>1640.131296209748</v>
       </c>
       <c r="R16">
-        <v>6342.286213508924</v>
+        <v>14761.18166588773</v>
       </c>
       <c r="S16">
-        <v>0.01027596787351053</v>
+        <v>0.01970677660577715</v>
       </c>
       <c r="T16">
-        <v>0.01079325593151809</v>
+        <v>0.02031854982224434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.0159745</v>
+        <v>11.977561</v>
       </c>
       <c r="H17">
-        <v>46.031949</v>
+        <v>23.955122</v>
       </c>
       <c r="I17">
-        <v>0.1342333339582516</v>
+        <v>0.08049069277749564</v>
       </c>
       <c r="J17">
-        <v>0.09368057459029433</v>
+        <v>0.05513987749816152</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.654529</v>
+        <v>2.266198333333334</v>
       </c>
       <c r="N17">
-        <v>1.963587</v>
+        <v>6.798595000000001</v>
       </c>
       <c r="O17">
-        <v>0.001636504842097015</v>
+        <v>0.004051889747168086</v>
       </c>
       <c r="P17">
-        <v>0.001641975240588762</v>
+        <v>0.004065587792570741</v>
       </c>
       <c r="Q17">
-        <v>15.0646227735105</v>
+        <v>27.14352877559833</v>
       </c>
       <c r="R17">
-        <v>90.387736641063</v>
+        <v>162.86117265359</v>
       </c>
       <c r="S17">
-        <v>0.0002196735009935043</v>
+        <v>0.0003261394128075909</v>
       </c>
       <c r="T17">
-        <v>0.000153821184001392</v>
+        <v>0.0002241760128403715</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.0159745</v>
+        <v>11.977561</v>
       </c>
       <c r="H18">
-        <v>46.031949</v>
+        <v>23.955122</v>
       </c>
       <c r="I18">
-        <v>0.1342333339582516</v>
+        <v>0.08049069277749564</v>
       </c>
       <c r="J18">
-        <v>0.09368057459029433</v>
+        <v>0.05513987749816152</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.877636000000001</v>
       </c>
       <c r="O18">
-        <v>0.006565428197618827</v>
+        <v>0.00469498661713519</v>
       </c>
       <c r="P18">
-        <v>0.006587374670116828</v>
+        <v>0.004710858751832666</v>
       </c>
       <c r="Q18">
-        <v>60.43715643209401</v>
+        <v>31.45162190859867</v>
       </c>
       <c r="R18">
-        <v>362.6229385925641</v>
+        <v>188.709731451592</v>
       </c>
       <c r="S18">
-        <v>0.0008812993158298897</v>
+        <v>0.0003779027253942821</v>
       </c>
       <c r="T18">
-        <v>0.000617109044138095</v>
+        <v>0.0002597561744871952</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.0159745</v>
+        <v>11.977561</v>
       </c>
       <c r="H19">
-        <v>46.031949</v>
+        <v>23.955122</v>
       </c>
       <c r="I19">
-        <v>0.1342333339582516</v>
+        <v>0.08049069277749564</v>
       </c>
       <c r="J19">
-        <v>0.09368057459029433</v>
+        <v>0.05513987749816152</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>196.492958</v>
+        <v>258.491684</v>
       </c>
       <c r="N19">
-        <v>589.4788739999999</v>
+        <v>775.475052</v>
       </c>
       <c r="O19">
-        <v>0.491287135031397</v>
+        <v>0.462174818824101</v>
       </c>
       <c r="P19">
-        <v>0.4929293766755139</v>
+        <v>0.4637372729004096</v>
       </c>
       <c r="Q19">
-        <v>4522.47691075757</v>
+        <v>3096.099913102724</v>
       </c>
       <c r="R19">
-        <v>27134.86146454543</v>
+        <v>18576.59947861634</v>
       </c>
       <c r="S19">
-        <v>0.06594711006606216</v>
+        <v>0.03720077135146542</v>
       </c>
       <c r="T19">
-        <v>0.04617790723939777</v>
+        <v>0.02557041641906008</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.0159745</v>
+        <v>11.977561</v>
       </c>
       <c r="H20">
-        <v>46.031949</v>
+        <v>23.955122</v>
       </c>
       <c r="I20">
-        <v>0.1342333339582516</v>
+        <v>0.08049069277749564</v>
       </c>
       <c r="J20">
-        <v>0.09368057459029433</v>
+        <v>0.05513987749816152</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.99747</v>
+        <v>5.653232</v>
       </c>
       <c r="N20">
-        <v>7.99494</v>
+        <v>11.306464</v>
       </c>
       <c r="O20">
-        <v>0.009994788636007805</v>
+        <v>0.01010779702828123</v>
       </c>
       <c r="P20">
-        <v>0.006685465696194116</v>
+        <v>0.006761312008663634</v>
       </c>
       <c r="Q20">
-        <v>92.00566758451501</v>
+        <v>67.711931127152</v>
       </c>
       <c r="R20">
-        <v>368.02267033806</v>
+        <v>270.847724508608</v>
       </c>
       <c r="S20">
-        <v>0.001341633800819373</v>
+        <v>0.0008135835852606676</v>
       </c>
       <c r="T20">
-        <v>0.0006262982678231669</v>
+        <v>0.0003728179158845612</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.0159745</v>
+        <v>11.977561</v>
       </c>
       <c r="H21">
-        <v>46.031949</v>
+        <v>23.955122</v>
       </c>
       <c r="I21">
-        <v>0.1342333339582516</v>
+        <v>0.08049069277749564</v>
       </c>
       <c r="J21">
-        <v>0.09368057459029433</v>
+        <v>0.05513987749816152</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>196.1845956666667</v>
+        <v>290.257182</v>
       </c>
       <c r="N21">
-        <v>588.5537870000001</v>
+        <v>870.7715460000001</v>
       </c>
       <c r="O21">
-        <v>0.4905161432928793</v>
+        <v>0.5189705077833145</v>
       </c>
       <c r="P21">
-        <v>0.4921558077175863</v>
+        <v>0.5207249685465234</v>
       </c>
       <c r="Q21">
-        <v>4515.379651156812</v>
+        <v>3476.573103093102</v>
       </c>
       <c r="R21">
-        <v>27092.27790694087</v>
+        <v>20859.43861855861</v>
       </c>
       <c r="S21">
-        <v>0.06584361727454666</v>
+        <v>0.04177229570256768</v>
       </c>
       <c r="T21">
-        <v>0.04610543885493389</v>
+        <v>0.02871271097588931</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.42290266666667</v>
+        <v>2.156022333333333</v>
       </c>
       <c r="H22">
-        <v>31.268708</v>
+        <v>6.468067</v>
       </c>
       <c r="I22">
-        <v>0.06078825706332867</v>
+        <v>0.01448873700194494</v>
       </c>
       <c r="J22">
-        <v>0.06363559648834623</v>
+        <v>0.0148881905936401</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.654529</v>
+        <v>2.266198333333334</v>
       </c>
       <c r="N22">
-        <v>1.963587</v>
+        <v>6.798595000000001</v>
       </c>
       <c r="O22">
-        <v>0.001636504842097015</v>
+        <v>0.004051889747168086</v>
       </c>
       <c r="P22">
-        <v>0.001641975240588762</v>
+        <v>0.004065587792570741</v>
       </c>
       <c r="Q22">
-        <v>6.822092059510667</v>
+        <v>4.885974218429444</v>
       </c>
       <c r="R22">
-        <v>61.398828535596</v>
+        <v>43.973767965865</v>
       </c>
       <c r="S22">
-        <v>9.948027702677542E-05</v>
+        <v>5.870676490759558E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001044880738539617</v>
+        <v>6.052924593096972E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.42290266666667</v>
+        <v>2.156022333333333</v>
       </c>
       <c r="H23">
-        <v>31.268708</v>
+        <v>6.468067</v>
       </c>
       <c r="I23">
-        <v>0.06078825706332867</v>
+        <v>0.01448873700194494</v>
       </c>
       <c r="J23">
-        <v>0.06363559648834623</v>
+        <v>0.0148881905936401</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.877636000000001</v>
       </c>
       <c r="O23">
-        <v>0.006565428197618827</v>
+        <v>0.00469498661713519</v>
       </c>
       <c r="P23">
-        <v>0.006587374670116828</v>
+        <v>0.004710858751832666</v>
       </c>
       <c r="Q23">
-        <v>27.36927775714312</v>
+        <v>5.661453049956888</v>
       </c>
       <c r="R23">
-        <v>246.323499814288</v>
+        <v>50.953077449612</v>
       </c>
       <c r="S23">
-        <v>0.0003991009370076798</v>
+        <v>6.802442632332293E-05</v>
       </c>
       <c r="T23">
-        <v>0.0004191915164251073</v>
+        <v>7.013616295700224E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.42290266666667</v>
+        <v>2.156022333333333</v>
       </c>
       <c r="H24">
-        <v>31.268708</v>
+        <v>6.468067</v>
       </c>
       <c r="I24">
-        <v>0.06078825706332867</v>
+        <v>0.01448873700194494</v>
       </c>
       <c r="J24">
-        <v>0.06363559648834623</v>
+        <v>0.0148881905936401</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>196.492958</v>
+        <v>258.491684</v>
       </c>
       <c r="N24">
-        <v>589.4788739999999</v>
+        <v>775.475052</v>
       </c>
       <c r="O24">
-        <v>0.491287135031397</v>
+        <v>0.462174818824101</v>
       </c>
       <c r="P24">
-        <v>0.4929293766755139</v>
+        <v>0.4637372729004096</v>
       </c>
       <c r="Q24">
-        <v>2048.026975919421</v>
+        <v>557.3138436849426</v>
       </c>
       <c r="R24">
-        <v>18432.24278327479</v>
+        <v>5015.824593164483</v>
       </c>
       <c r="S24">
-        <v>0.02986448865619483</v>
+        <v>0.006696329398863951</v>
       </c>
       <c r="T24">
-        <v>0.03136785491137502</v>
+        <v>0.006904208904316191</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.42290266666667</v>
+        <v>2.156022333333333</v>
       </c>
       <c r="H25">
-        <v>31.268708</v>
+        <v>6.468067</v>
       </c>
       <c r="I25">
-        <v>0.06078825706332867</v>
+        <v>0.01448873700194494</v>
       </c>
       <c r="J25">
-        <v>0.06363559648834623</v>
+        <v>0.0148881905936401</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.99747</v>
+        <v>5.653232</v>
       </c>
       <c r="N25">
-        <v>7.99494</v>
+        <v>11.306464</v>
       </c>
       <c r="O25">
-        <v>0.009994788636007805</v>
+        <v>0.01010779702828123</v>
       </c>
       <c r="P25">
-        <v>0.006685465696194116</v>
+        <v>0.006761312008663634</v>
       </c>
       <c r="Q25">
-        <v>41.66524072292</v>
+        <v>12.18849444751467</v>
       </c>
       <c r="R25">
-        <v>249.99144433752</v>
+        <v>73.130966685088</v>
       </c>
       <c r="S25">
-        <v>0.0006075657808992785</v>
+        <v>0.0001464492128118073</v>
       </c>
       <c r="T25">
-        <v>0.0004254335973796895</v>
+        <v>0.0001006637018480518</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.42290266666667</v>
+        <v>2.156022333333333</v>
       </c>
       <c r="H26">
-        <v>31.268708</v>
+        <v>6.468067</v>
       </c>
       <c r="I26">
-        <v>0.06078825706332867</v>
+        <v>0.01448873700194494</v>
       </c>
       <c r="J26">
-        <v>0.06363559648834623</v>
+        <v>0.0148881905936401</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>196.1845956666667</v>
+        <v>290.257182</v>
       </c>
       <c r="N26">
-        <v>588.5537870000001</v>
+        <v>870.7715460000001</v>
       </c>
       <c r="O26">
-        <v>0.4905161432928793</v>
+        <v>0.5189705077833145</v>
       </c>
       <c r="P26">
-        <v>0.4921558077175863</v>
+        <v>0.5207249685465234</v>
       </c>
       <c r="Q26">
-        <v>2044.812945333022</v>
+        <v>625.800966802398</v>
       </c>
       <c r="R26">
-        <v>18403.3165079972</v>
+        <v>5632.208701221582</v>
       </c>
       <c r="S26">
-        <v>0.02981762141220011</v>
+        <v>0.007519227199038263</v>
       </c>
       <c r="T26">
-        <v>0.03131862838931243</v>
+        <v>0.007752652578587887</v>
       </c>
     </row>
   </sheetData>
